--- a/data/trans_orig/P37C2_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P37C2_2023-Estudios-trans_orig.xlsx
@@ -757,7 +757,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>3389</v>
+        <v>3111</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.001196333679000397</v>
@@ -766,7 +766,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.004183524199267714</v>
+        <v>0.003840256082389044</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>2</v>
@@ -778,7 +778,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>3891</v>
+        <v>3274</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0007063072969796969</v>
@@ -787,7 +787,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.002835776121899517</v>
+        <v>0.002385586084195437</v>
       </c>
     </row>
     <row r="5">
@@ -804,19 +804,19 @@
         <v>10722</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>5769</v>
+        <v>5570</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>18116</v>
+        <v>18601</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.0190756135484705</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01026436361988987</v>
+        <v>0.009909750309778451</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.03223045859155228</v>
+        <v>0.03309406959056483</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>9</v>
@@ -825,19 +825,19 @@
         <v>5898</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>2739</v>
+        <v>2755</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>12293</v>
+        <v>12112</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.007279847548916873</v>
+        <v>0.007279847548916872</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.003381111395155246</v>
+        <v>0.003400962406453931</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.01517402188966941</v>
+        <v>0.01495048764013843</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>21</v>
@@ -846,19 +846,19 @@
         <v>16620</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>10728</v>
+        <v>10372</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>25799</v>
+        <v>25555</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.01211147323779137</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.007817755255735907</v>
+        <v>0.007558662868426476</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.0188005012507653</v>
+        <v>0.01862298962262121</v>
       </c>
     </row>
     <row r="6">
@@ -875,19 +875,19 @@
         <v>44045</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>32701</v>
+        <v>32409</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>58476</v>
+        <v>59242</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.07836090479539776</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.05817972430941903</v>
+        <v>0.05766037595330863</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1040364245656617</v>
+        <v>0.1053991744373281</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>82</v>
@@ -896,19 +896,19 @@
         <v>49561</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>39173</v>
+        <v>39775</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>60572</v>
+        <v>60147</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.06117435923757665</v>
+        <v>0.06117435923757664</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.04835280762612591</v>
+        <v>0.04909499447524463</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.07476556353056488</v>
+        <v>0.0742409052503494</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>128</v>
@@ -917,19 +917,19 @@
         <v>93605</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>78911</v>
+        <v>77209</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>111887</v>
+        <v>111083</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.0682140847647974</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.05750594125794601</v>
+        <v>0.0562654804261736</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.0815366919923364</v>
+        <v>0.08095078835095529</v>
       </c>
     </row>
     <row r="7">
@@ -946,19 +946,19 @@
         <v>85877</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>70154</v>
+        <v>71159</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>104310</v>
+        <v>103662</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1527862169370945</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1248127173970655</v>
+        <v>0.1266006934706128</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1855795652715319</v>
+        <v>0.1844274752109895</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>205</v>
@@ -967,19 +967,19 @@
         <v>124091</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>108548</v>
+        <v>106154</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>141127</v>
+        <v>139864</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1531691771380198</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1339844957773207</v>
+        <v>0.1310289934278106</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1741968398551779</v>
+        <v>0.1726383375125836</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>299</v>
@@ -988,19 +988,19 @@
         <v>209968</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>188349</v>
+        <v>187379</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>235473</v>
+        <v>233915</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.153012314044544</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1372578454719333</v>
+        <v>0.1365505900683043</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1715989274446397</v>
+        <v>0.1704629396246491</v>
       </c>
     </row>
     <row r="8">
@@ -1017,19 +1017,19 @@
         <v>421431</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>401196</v>
+        <v>399745</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>440674</v>
+        <v>441048</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7497772647190374</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7137770903527435</v>
+        <v>0.7111958485760336</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7840120939910132</v>
+        <v>0.7846779612477762</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1110</v>
@@ -1038,19 +1038,19 @@
         <v>629637</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>611296</v>
+        <v>611312</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>648139</v>
+        <v>647861</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7771802823964862</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7545409173222792</v>
+        <v>0.7545610452200117</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8000179565435358</v>
+        <v>0.7996739349119344</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1636</v>
@@ -1059,19 +1059,19 @@
         <v>1051068</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1023054</v>
+        <v>1024559</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1077340</v>
+        <v>1077797</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7659558206558875</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7455405373796267</v>
+        <v>0.7466376730202274</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7851010228552893</v>
+        <v>0.7854342071802271</v>
       </c>
     </row>
     <row r="9">
@@ -1163,19 +1163,19 @@
         <v>6311</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2715</v>
+        <v>2492</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>13262</v>
+        <v>13855</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.002850924851537069</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.001226432556278747</v>
+        <v>0.001125797440825701</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.00599150201762009</v>
+        <v>0.006259367341761559</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>10</v>
@@ -1184,19 +1184,19 @@
         <v>8857</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>4301</v>
+        <v>4341</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>17195</v>
+        <v>17302</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.004092211614169202</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.001987088933384706</v>
+        <v>0.002005748171343432</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.007944167467160344</v>
+        <v>0.007993718156286477</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>16</v>
@@ -1205,19 +1205,19 @@
         <v>15168</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>9007</v>
+        <v>8818</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>25939</v>
+        <v>25342</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.003464612113202318</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.00205730200396777</v>
+        <v>0.002014227889981775</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.005924899092162717</v>
+        <v>0.00578843735090254</v>
       </c>
     </row>
     <row r="11">
@@ -1234,19 +1234,19 @@
         <v>29147</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>19554</v>
+        <v>19506</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>43370</v>
+        <v>42310</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.01316745725128667</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.008834024847338131</v>
+        <v>0.008812071950456532</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.01959309084637895</v>
+        <v>0.0191144579991428</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>16</v>
@@ -1255,19 +1255,19 @@
         <v>11866</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>6801</v>
+        <v>6952</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>19112</v>
+        <v>20343</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.005482340935520386</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.003142167351627952</v>
+        <v>0.003212040262164155</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.008830136199336059</v>
+        <v>0.009398627814796152</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>43</v>
@@ -1276,19 +1276,19 @@
         <v>41013</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>29900</v>
+        <v>29534</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>56007</v>
+        <v>56405</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.009367966167211333</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.006829541682889417</v>
+        <v>0.006745910491822954</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.01279294478676361</v>
+        <v>0.0128836710830067</v>
       </c>
     </row>
     <row r="12">
@@ -1305,19 +1305,19 @@
         <v>138489</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>113151</v>
+        <v>112421</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>170381</v>
+        <v>169384</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.06256462664864405</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.05111789050658059</v>
+        <v>0.05078819205139413</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.07697244859243202</v>
+        <v>0.07652191064671778</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>113</v>
@@ -1326,19 +1326,19 @@
         <v>93767</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>74343</v>
+        <v>75165</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>114672</v>
+        <v>115038</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.04332111391815089</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.03434704702908137</v>
+        <v>0.03472684103365288</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.05297966881592062</v>
+        <v>0.05314859318963481</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>224</v>
@@ -1347,19 +1347,19 @@
         <v>232256</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>203706</v>
+        <v>200124</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>273667</v>
+        <v>269569</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.05305071013240346</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.04652950015319033</v>
+        <v>0.04571132759816924</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.0625097665672246</v>
+        <v>0.06157356099216378</v>
       </c>
     </row>
     <row r="13">
@@ -1376,19 +1376,19 @@
         <v>518384</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>471542</v>
+        <v>475035</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>562997</v>
+        <v>564625</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2341889502209097</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2130270910686292</v>
+        <v>0.2146051717498398</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2543433075747609</v>
+        <v>0.2550788312109294</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>718</v>
@@ -1397,19 +1397,19 @@
         <v>480851</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>446444</v>
+        <v>446570</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>517588</v>
+        <v>516233</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.2221571166715644</v>
+        <v>0.2221571166715643</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2062611130284403</v>
+        <v>0.2063193225511815</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2391302860718604</v>
+        <v>0.2385042560726834</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1191</v>
@@ -1418,19 +1418,19 @@
         <v>999235</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>940712</v>
+        <v>946662</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1055039</v>
+        <v>1058838</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2282404593435459</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2148729090231515</v>
+        <v>0.2162319198476388</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2409870140768459</v>
+        <v>0.2418545894837348</v>
       </c>
     </row>
     <row r="14">
@@ -1447,19 +1447,19 @@
         <v>1521200</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1471865</v>
+        <v>1469656</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1569537</v>
+        <v>1566351</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6872280410276224</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6649402479414686</v>
+        <v>0.6639422527688201</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7090651797680134</v>
+        <v>0.7076259775490786</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2054</v>
@@ -1468,19 +1468,19 @@
         <v>1569121</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1526423</v>
+        <v>1526690</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1606273</v>
+        <v>1604889</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.724947216860595</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7052205613717241</v>
+        <v>0.7053437817148839</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7421119981827339</v>
+        <v>0.7414725259717778</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>3417</v>
@@ -1489,19 +1489,19 @@
         <v>3090321</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>3026732</v>
+        <v>3027394</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>3150831</v>
+        <v>3154560</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.7058762522436371</v>
+        <v>0.7058762522436373</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6913514075467186</v>
+        <v>0.6915027175711246</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7196976454681412</v>
+        <v>0.7205494424538504</v>
       </c>
     </row>
     <row r="15">
@@ -1593,19 +1593,19 @@
         <v>5069</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1502</v>
+        <v>1626</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>12125</v>
+        <v>12405</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.007123742241418081</v>
+        <v>0.007123742241418079</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.002111257960258327</v>
+        <v>0.002285724411141845</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01703946284793978</v>
+        <v>0.01743253181384261</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>3</v>
@@ -1617,16 +1617,16 @@
         <v>610</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>8902</v>
+        <v>9418</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.004361752691994616</v>
+        <v>0.004361752691994617</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.0008326944683102725</v>
+        <v>0.000832813254484901</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01214505039297833</v>
+        <v>0.0128482198240807</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>8</v>
@@ -1635,19 +1635,19 @@
         <v>8266</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>3599</v>
+        <v>3623</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>17876</v>
+        <v>16555</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.005722285100010095</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.002491646406518798</v>
+        <v>0.002508292834065382</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01237464252326262</v>
+        <v>0.01145998613242353</v>
       </c>
     </row>
     <row r="17">
@@ -1664,19 +1664,19 @@
         <v>3010</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>778</v>
+        <v>783</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>6860</v>
+        <v>7486</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.00423004720259378</v>
+        <v>0.004230047202593779</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.001093844367973781</v>
+        <v>0.001100295421317963</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.009639976529020345</v>
+        <v>0.01051998248635374</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>5</v>
@@ -1685,19 +1685,19 @@
         <v>3761</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1216</v>
+        <v>1179</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>8901</v>
+        <v>8249</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.005130864931519646</v>
+        <v>0.005130864931519647</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.001658568034991745</v>
+        <v>0.001607870820969565</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.01214338460496121</v>
+        <v>0.01125391185260797</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>9</v>
@@ -1706,19 +1706,19 @@
         <v>6771</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2936</v>
+        <v>3177</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>13028</v>
+        <v>13678</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.004687129829707123</v>
+        <v>0.004687129829707124</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.002032186380990542</v>
+        <v>0.002199366278294862</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.009018541397405048</v>
+        <v>0.009468503016618252</v>
       </c>
     </row>
     <row r="18">
@@ -1735,19 +1735,19 @@
         <v>27656</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>18331</v>
+        <v>18103</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>40968</v>
+        <v>41248</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.03886577861381334</v>
+        <v>0.03886577861381333</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.02576027403304116</v>
+        <v>0.02544050337909028</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.05757300074114232</v>
+        <v>0.05796584546489073</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>32</v>
@@ -1756,19 +1756,19 @@
         <v>24961</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>16987</v>
+        <v>17009</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>35094</v>
+        <v>37616</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.03405418301032025</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.02317430633108878</v>
+        <v>0.02320523644331687</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.04787722380205198</v>
+        <v>0.05131832075264054</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>58</v>
@@ -1777,19 +1777,19 @@
         <v>52618</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>40545</v>
+        <v>39340</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>70400</v>
+        <v>68992</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.0364243338149037</v>
+        <v>0.03642433381490371</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.02806681256759392</v>
+        <v>0.0272329298538273</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.04873397281373073</v>
+        <v>0.04775955964080734</v>
       </c>
     </row>
     <row r="19">
@@ -1806,19 +1806,19 @@
         <v>165476</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>142948</v>
+        <v>142039</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>190750</v>
+        <v>191165</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.2325452649167836</v>
+        <v>0.2325452649167835</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2008856136675253</v>
+        <v>0.1996094328662594</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2680631610413324</v>
+        <v>0.2686461292565382</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>215</v>
@@ -1827,19 +1827,19 @@
         <v>139633</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>122559</v>
+        <v>122612</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>158529</v>
+        <v>161405</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1904975108854428</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.167204228394901</v>
+        <v>0.1672763862736865</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2162772049197688</v>
+        <v>0.2202005449074608</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>375</v>
@@ -1848,19 +1848,19 @@
         <v>305109</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>275360</v>
+        <v>276279</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>337959</v>
+        <v>335550</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.2112098745711939</v>
+        <v>0.2112098745711938</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1906158205862715</v>
+        <v>0.1912525341216842</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2339499899520721</v>
+        <v>0.2322822822841753</v>
       </c>
     </row>
     <row r="20">
@@ -1877,19 +1877,19 @@
         <v>510375</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>483550</v>
+        <v>484387</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>534596</v>
+        <v>538089</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.7172351670253913</v>
+        <v>0.7172351670253911</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6795371946410224</v>
+        <v>0.6807132106146574</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7512733015751358</v>
+        <v>0.7561809338409496</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>746</v>
@@ -1898,19 +1898,19 @@
         <v>561439</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>540890</v>
+        <v>540094</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>580842</v>
+        <v>581728</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.7659556884807225</v>
+        <v>0.7659556884807228</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.737921304937449</v>
+        <v>0.7368351599366064</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7924261724987212</v>
+        <v>0.7936349566631027</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1232</v>
@@ -1919,19 +1919,19 @@
         <v>1071815</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1036378</v>
+        <v>1037258</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1103579</v>
+        <v>1105700</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7419563766841851</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7174256373881712</v>
+        <v>0.7180350566448426</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7639448713107097</v>
+        <v>0.7654133600670876</v>
       </c>
     </row>
     <row r="21">
@@ -2023,19 +2023,19 @@
         <v>11380</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>5620</v>
+        <v>6477</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>20969</v>
+        <v>21940</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.003263304515569601</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.001611656834624358</v>
+        <v>0.001857443260638517</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.006013198375135425</v>
+        <v>0.00629166393849525</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>15</v>
@@ -2044,19 +2044,19 @@
         <v>13024</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>7585</v>
+        <v>7190</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>23805</v>
+        <v>22167</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.003512716550436585</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.002045873856045387</v>
+        <v>0.001939325766813162</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.006420617065022903</v>
+        <v>0.005978837128019332</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>26</v>
@@ -2065,19 +2065,19 @@
         <v>24404</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>15805</v>
+        <v>15750</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>36310</v>
+        <v>35263</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.003391830977194608</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.002196739236376265</v>
+        <v>0.002189058675137938</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.005046644907231954</v>
+        <v>0.004901168558774794</v>
       </c>
     </row>
     <row r="23">
@@ -2094,19 +2094,19 @@
         <v>42879</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>30833</v>
+        <v>31457</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>58126</v>
+        <v>59226</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.01229600638620117</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.008841661943109959</v>
+        <v>0.009020791761357795</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.0166683912696963</v>
+        <v>0.01698399673546406</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>30</v>
@@ -2115,19 +2115,19 @@
         <v>21525</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>14325</v>
+        <v>15048</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>30567</v>
+        <v>32362</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.005805630577241514</v>
+        <v>0.005805630577241515</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.003863630322067982</v>
+        <v>0.004058664587496161</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.008244510259311754</v>
+        <v>0.008728504710507172</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>73</v>
@@ -2136,19 +2136,19 @@
         <v>64404</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>50737</v>
+        <v>49365</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>81053</v>
+        <v>81839</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.008951400189523413</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.007051910707173145</v>
+        <v>0.006861213564628011</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.01126551916319182</v>
+        <v>0.0113747967129491</v>
       </c>
     </row>
     <row r="24">
@@ -2165,19 +2165,19 @@
         <v>210190</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>178160</v>
+        <v>183065</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>245000</v>
+        <v>254363</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.06027479130365663</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.05108982568306988</v>
+        <v>0.05249646329900855</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.07025695459140043</v>
+        <v>0.07294197012607029</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>227</v>
@@ -2186,19 +2186,19 @@
         <v>168289</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>145681</v>
+        <v>147165</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>196421</v>
+        <v>196419</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.04539019140643365</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.03929250483416029</v>
+        <v>0.0396927488060111</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.05297784899494318</v>
+        <v>0.05297733821157178</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>410</v>
@@ -2207,19 +2207,19 @@
         <v>378479</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>339340</v>
+        <v>338382</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>421985</v>
+        <v>420972</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.052604491999478</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.04716456619171987</v>
+        <v>0.04703142814873674</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.05865132116305235</v>
+        <v>0.05851052660890448</v>
       </c>
     </row>
     <row r="25">
@@ -2236,19 +2236,19 @@
         <v>769738</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>715292</v>
+        <v>711568</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>822681</v>
+        <v>822677</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2207328302553944</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.205119615905753</v>
+        <v>0.2040519309844245</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2359148778740755</v>
+        <v>0.2359139187601712</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1138</v>
@@ -2257,19 +2257,19 @@
         <v>744575</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>699973</v>
+        <v>703162</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>786359</v>
+        <v>785404</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2008233676332985</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1887936295866661</v>
+        <v>0.1896536813363117</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2120931967684652</v>
+        <v>0.2118355242333531</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1865</v>
@@ -2278,19 +2278,19 @@
         <v>1514313</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1446094</v>
+        <v>1447736</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1587511</v>
+        <v>1583507</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.2104731297359788</v>
+        <v>0.2104731297359787</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.200991486781855</v>
+        <v>0.2012196579658192</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2206469076408838</v>
+        <v>0.2200903758782956</v>
       </c>
     </row>
     <row r="26">
@@ -2307,19 +2307,19 @@
         <v>2453007</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2393089</v>
+        <v>2395284</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>2511813</v>
+        <v>2515856</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.7034330675391782</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.6862507435832773</v>
+        <v>0.6868801644586635</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.7202964251207954</v>
+        <v>0.721455859690283</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3910</v>
@@ -2328,19 +2328,19 @@
         <v>2760197</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2714605</v>
+        <v>2711612</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>2809407</v>
+        <v>2807526</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.7444680938325897</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7321711107348783</v>
+        <v>0.731363973140299</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7577406106919805</v>
+        <v>0.7572334327950103</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6285</v>
@@ -2349,19 +2349,19 @@
         <v>5213204</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>5139288</v>
+        <v>5136330</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>5289239</v>
+        <v>5283357</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.7245791470978252</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7143055331433229</v>
+        <v>0.7138944319511094</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7351472095919972</v>
+        <v>0.7343296833494187</v>
       </c>
     </row>
     <row r="27">
